--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -6,11 +6,11 @@
     <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_A06BD28A_4ABB_4858_A3BB_7D4AF82F1640_.wvu.FilterData">'Página1'!$A$1:$L$41</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_93BC8BBD_6D70_4B03_A77C_066B540EA36D_.wvu.FilterData">'Página1'!$A$1:$L$41</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A06BD28A-4ABB-4858-A3BB-7D4AF82F1640}" name="Dev"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{93BC8BBD-6D70-4B03-A77C-066B540EA36D}" name="Dev"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -177,6 +177,66 @@
     <t>cartaz forms pesquisa.pdf</t>
   </si>
   <si>
+    <t>Analize de requisitos do app</t>
+  </si>
+  <si>
+    <t>Desenvolvimento, Administrativo</t>
+  </si>
+  <si>
+    <t>Italo Felipe</t>
+  </si>
+  <si>
+    <t>Escolher as melhores ferramentas e estrategias para o app</t>
+  </si>
+  <si>
+    <t>Analize de requisitos</t>
+  </si>
+  <si>
+    <t>Analize dos dados da pesquisa</t>
+  </si>
+  <si>
+    <t>Analize de Dados</t>
+  </si>
+  <si>
+    <t>Tulio Vilaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerar um relatorio com os dados obtidos </t>
+  </si>
+  <si>
+    <t>Relatório formulario pesquisa.pdf</t>
+  </si>
+  <si>
+    <t>Pesquisa de custo do app</t>
+  </si>
+  <si>
+    <t>Financeiro</t>
+  </si>
+  <si>
+    <t>Gustavo Aguiar</t>
+  </si>
+  <si>
+    <t>Gerar um relatorio de custos para manter o app e o site</t>
+  </si>
+  <si>
+    <t>Criação da apresentação</t>
+  </si>
+  <si>
+    <t>Designer, Administrativo</t>
+  </si>
+  <si>
+    <t>Criar um slide para a presentação</t>
+  </si>
+  <si>
+    <t>Não iniciada</t>
+  </si>
+  <si>
+    <t>Apresentar a ideia do projeto, por meio de slides</t>
+  </si>
+  <si>
+    <t>Desenvolvimento</t>
+  </si>
+  <si>
     <t>Reformulação do cronograma</t>
   </si>
   <si>
@@ -184,66 +244,6 @@
   </si>
   <si>
     <t>Deverá ser feita uma reorganização no cronograma</t>
-  </si>
-  <si>
-    <t>Analize de requisitos do app</t>
-  </si>
-  <si>
-    <t>Desenvolvimento, Administrativo</t>
-  </si>
-  <si>
-    <t>Italo Felipe</t>
-  </si>
-  <si>
-    <t>Escolher as melhores ferramentas e estrategias para o app</t>
-  </si>
-  <si>
-    <t>Analize de requisitos</t>
-  </si>
-  <si>
-    <t>Analize dos dados da pesquisa</t>
-  </si>
-  <si>
-    <t>Analize de Dados</t>
-  </si>
-  <si>
-    <t>Tulio Vilaca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerar um relatorio com os dados obtidos </t>
-  </si>
-  <si>
-    <t>Relatório formulario pesquisa.pdf</t>
-  </si>
-  <si>
-    <t>Pesquisa de custo do app</t>
-  </si>
-  <si>
-    <t>Financeiro</t>
-  </si>
-  <si>
-    <t>Gustavo Aguiar</t>
-  </si>
-  <si>
-    <t>Gerar um relatorio de custos para manter o app e o site</t>
-  </si>
-  <si>
-    <t>Criação da apresentação</t>
-  </si>
-  <si>
-    <t>Administrativo, Designer</t>
-  </si>
-  <si>
-    <t>Criar um slide para a presentação</t>
-  </si>
-  <si>
-    <t>Não iniciada</t>
-  </si>
-  <si>
-    <t>Apresentar a ideia do projeto, por meio de slides</t>
-  </si>
-  <si>
-    <t>Desenvolvimento</t>
   </si>
   <si>
     <t>Criaçao das redes sociais</t>
@@ -661,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -752,7 +752,10 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1057,6 +1060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1481,65 +1485,65 @@
         <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>24</v>
+        <v>54</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H12" s="10">
-        <v>45579.0</v>
+        <v>45580.0</v>
       </c>
       <c r="I12" s="10">
-        <v>45657.0</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>54</v>
-      </c>
+        <v>45580.0</v>
+      </c>
+      <c r="J12" s="21"/>
       <c r="K12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="29"/>
+        <v>56</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="17">
-        <v>45580.0</v>
+        <v>45581.0</v>
       </c>
       <c r="I13" s="17">
-        <v>45580.0</v>
+        <v>45582.0</v>
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1547,7 +1551,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>13</v>
@@ -1555,11 +1559,11 @@
       <c r="D14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>62</v>
+      <c r="E14" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>25</v>
@@ -1572,18 +1576,16 @@
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>65</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="L14" s="29"/>
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>13</v>
@@ -1591,20 +1593,20 @@
       <c r="D15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>67</v>
+      <c r="E15" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="17">
-        <v>45581.0</v>
+        <v>45582.0</v>
       </c>
       <c r="I15" s="17">
-        <v>45582.0</v>
+        <v>45583.0</v>
       </c>
       <c r="J15" s="25"/>
       <c r="K15" s="13" t="s">
@@ -1614,75 +1616,77 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H16" s="10">
-        <v>45582.0</v>
+        <v>45583.0</v>
       </c>
       <c r="I16" s="10">
         <v>45583.0</v>
       </c>
       <c r="J16" s="21"/>
-      <c r="K16" s="6" t="s">
-        <v>72</v>
+      <c r="K16" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="L16" s="29"/>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="H17" s="17">
-        <v>45583.0</v>
+        <v>45586.0</v>
       </c>
       <c r="I17" s="17">
-        <v>45583.0</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="30" t="s">
+        <v>45657.0</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>74</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="L17" s="27"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>76</v>
@@ -1700,7 +1704,7 @@
         <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H18" s="10">
         <v>45586.0</v>
@@ -1716,7 +1720,7 @@
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>78</v>
@@ -1734,7 +1738,7 @@
         <v>47</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H19" s="17">
         <v>45586.0</v>
@@ -1752,7 +1756,7 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>82</v>
@@ -1770,7 +1774,7 @@
         <v>83</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H20" s="10">
         <v>45586.0</v>
@@ -1788,7 +1792,7 @@
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>85</v>
@@ -1806,7 +1810,7 @@
         <v>50</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H21" s="17">
         <v>45586.0</v>
@@ -1824,9 +1828,9 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>88</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1842,7 +1846,7 @@
         <v>24</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H22" s="10">
         <v>45593.0</v>
@@ -1858,9 +1862,9 @@
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>91</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -1873,10 +1877,10 @@
         <v>92</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H23" s="17">
         <v>45593.0</v>
@@ -1892,7 +1896,7 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>94</v>
@@ -1910,7 +1914,7 @@
         <v>50</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H24" s="10">
         <v>45600.0</v>
@@ -1926,7 +1930,7 @@
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>96</v>
@@ -1944,7 +1948,7 @@
         <v>24</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H25" s="17">
         <v>45600.0</v>
@@ -1960,7 +1964,7 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>99</v>
@@ -1975,10 +1979,10 @@
         <v>92</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H26" s="10">
         <v>45602.0</v>
@@ -1994,9 +1998,9 @@
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>101</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -2006,13 +2010,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>102</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H27" s="17">
         <v>45602.0</v>
@@ -2021,16 +2025,16 @@
         <v>45605.0</v>
       </c>
       <c r="J27" s="25"/>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="33" t="s">
         <v>103</v>
       </c>
       <c r="L27" s="27"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -2040,13 +2044,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>102</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H28" s="10">
         <v>45607.0</v>
@@ -2062,9 +2066,9 @@
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>106</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -2074,13 +2078,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H29" s="17">
         <v>45614.0</v>
@@ -2096,7 +2100,7 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>108</v>
@@ -2114,7 +2118,7 @@
         <v>110</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H30" s="10">
         <v>45614.0</v>
@@ -2130,7 +2134,7 @@
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>112</v>
@@ -2148,7 +2152,7 @@
         <v>50</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H31" s="17">
         <v>45621.0</v>
@@ -2164,9 +2168,9 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -2179,10 +2183,10 @@
         <v>116</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H32" s="10">
         <v>45622.0</v>
@@ -2198,7 +2202,7 @@
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>118</v>
@@ -2210,13 +2214,13 @@
         <v>14</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>102</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H33" s="17">
         <v>45593.0</v>
@@ -2234,7 +2238,7 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>121</v>
@@ -2252,7 +2256,7 @@
         <v>47</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H34" s="10">
         <v>45642.0</v>
@@ -2268,7 +2272,7 @@
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>123</v>
@@ -2286,7 +2290,7 @@
         <v>24</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H35" s="17">
         <v>45649.0</v>
@@ -2302,9 +2306,9 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="32" t="s">
         <v>125</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -2320,7 +2324,7 @@
         <v>83</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H36" s="10">
         <v>45619.0</v>
@@ -2338,9 +2342,9 @@
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -2350,13 +2354,13 @@
         <v>1</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H37" s="17">
         <v>45658.0</v>
@@ -2372,7 +2376,7 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>129</v>
@@ -2390,7 +2394,7 @@
         <v>83</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H38" s="10">
         <v>45663.0</v>
@@ -2406,9 +2410,9 @@
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="33" t="s">
         <v>132</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -2424,7 +2428,7 @@
         <v>110</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H39" s="17">
         <v>45663.0</v>
@@ -2440,7 +2444,7 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>134</v>
@@ -2452,13 +2456,13 @@
         <v>1</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H40" s="10">
         <v>45684.0</v>
@@ -2473,42 +2477,42 @@
       <c r="L40" s="29"/>
     </row>
     <row r="41">
-      <c r="A41" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="34" t="s">
+      <c r="A41" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41" s="37">
+      <c r="E41" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="38">
         <v>45689.0</v>
       </c>
-      <c r="I41" s="37">
+      <c r="I41" s="38">
         <v>45702.0</v>
       </c>
-      <c r="J41" s="38"/>
-      <c r="K41" s="34" t="s">
+      <c r="J41" s="39"/>
+      <c r="K41" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="L41" s="39"/>
+      <c r="L41" s="40"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A06BD28A-4ABB-4858-A3BB-7D4AF82F1640}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{93BC8BBD-6D70-4B03-A77C-066B540EA36D}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$L$41">
         <filterColumn colId="4">
           <customFilters>
@@ -2556,9 +2560,12 @@
     <hyperlink r:id="rId5" ref="L8"/>
     <hyperlink r:id="rId6" ref="L10"/>
     <hyperlink r:id="rId7" ref="L11"/>
-    <hyperlink r:id="rId8" ref="L13"/>
-    <hyperlink r:id="rId9" ref="L14"/>
+    <hyperlink r:id="rId8" ref="L12"/>
+    <hyperlink r:id="rId9" ref="L13"/>
   </hyperlinks>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId10"/>
   <tableParts count="1">
     <tablePart r:id="rId12"/>
